--- a/biology/Médecine/Voie_naturelle/Voie_naturelle.xlsx
+++ b/biology/Médecine/Voie_naturelle/Voie_naturelle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En médecine, d'un point de vue anatomique, le terme voie naturelle (souvent employé au pluriel, les voies naturelles) désigne au sens large les espaces virtuels ou cavités du corps humain abouchés à des orifices naturels.
 Les orifices naturels sont par exemple l'anus, la bouche, les narines, le vagin ou encore l'entrée du conduit auditif. Les voies naturelles constituent l'ensemble des cavités délimitées par les tissus biologiques formant ces organes. Par exemple, les voies respiratoires sont qualifiées de voies naturelles.
